--- a/codes/02_csv_processing/results/test1/result.xlsx
+++ b/codes/02_csv_processing/results/test1/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
         <v>51.2</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4</v>
+        <v>0.001835592367927401</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>61.9</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8</v>
+        <v>0.001875727713814537</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>22.3</v>
+        <v>0.002233477646774439</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>64.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>21.5</v>
+        <v>0.002149945764296016</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>65.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>22.1</v>
+        <v>0.002207288172769739</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>55.9</v>
       </c>
       <c r="D7" t="n">
-        <v>18.4</v>
+        <v>0.001836426602913339</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>64.2</v>
       </c>
       <c r="D8" t="n">
-        <v>20.4</v>
+        <v>0.002041450596126614</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>61.9</v>
       </c>
       <c r="D9" t="n">
-        <v>19.6</v>
+        <v>0.001957082730043983</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>51</v>
       </c>
       <c r="D10" t="n">
-        <v>17.1</v>
+        <v>0.001713305485063615</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>54.7</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>0.00190208734556152</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>57.8</v>
       </c>
       <c r="D12" t="n">
-        <v>20.3</v>
+        <v>0.002026521178919521</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>51.8</v>
       </c>
       <c r="D13" t="n">
-        <v>17.5</v>
+        <v>0.001754734877529863</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="n">
-        <v>18.9</v>
+        <v>0.001892808951689657</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>55.5</v>
       </c>
       <c r="D15" t="n">
-        <v>19.1</v>
+        <v>0.001910796039337369</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>52.6</v>
       </c>
       <c r="D16" t="n">
-        <v>17.5</v>
+        <v>0.001750377649765362</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>63.5</v>
       </c>
       <c r="D17" t="n">
-        <v>19.5</v>
+        <v>0.001947309489261904</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>58.7</v>
       </c>
       <c r="D18" t="n">
-        <v>20.6</v>
+        <v>0.002060976631279557</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>64.8</v>
       </c>
       <c r="D19" t="n">
-        <v>21.3</v>
+        <v>0.002132493946378168</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>62.5</v>
       </c>
       <c r="D20" t="n">
-        <v>19.1</v>
+        <v>0.001910567344279798</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>56.3</v>
       </c>
       <c r="D21" t="n">
-        <v>19.3</v>
+        <v>0.001934872874427714</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>21.6</v>
+        <v>0.002158544592801422</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>65.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>21.3</v>
+        <v>0.00212672158024154</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>44.4</v>
       </c>
       <c r="D24" t="n">
-        <v>17.1</v>
+        <v>0.001707783560371283</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>58.7</v>
       </c>
       <c r="D25" t="n">
-        <v>19.4</v>
+        <v>0.001944588001212703</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>64.3</v>
       </c>
       <c r="D26" t="n">
-        <v>21.8</v>
+        <v>0.002180090579361416</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>58.8</v>
       </c>
       <c r="D27" t="n">
-        <v>20.2</v>
+        <v>0.002018659742713984</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>64.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>19.9</v>
+        <v>0.001994976799093529</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>59.7</v>
       </c>
       <c r="D29" t="n">
-        <v>20.3</v>
+        <v>0.002030186656818102</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>49.1</v>
       </c>
       <c r="D30" t="n">
-        <v>17.2</v>
+        <v>0.001720432623471517</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>51.7</v>
       </c>
       <c r="D31" t="n">
-        <v>18.7</v>
+        <v>0.001869489303283816</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>46.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>0.001502466396672588</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>54.8</v>
       </c>
       <c r="D33" t="n">
-        <v>19.6</v>
+        <v>0.001959870296150004</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>57</v>
       </c>
       <c r="D34" t="n">
-        <v>19.2</v>
+        <v>0.001922447635813047</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>61.8</v>
       </c>
       <c r="D35" t="n">
-        <v>19.2</v>
+        <v>0.001921124217894568</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>63.5</v>
       </c>
       <c r="D36" t="n">
-        <v>19.1</v>
+        <v>0.001910351218636945</v>
       </c>
     </row>
     <row r="37">
@@ -951,7 +951,7 @@
         <v>58.4</v>
       </c>
       <c r="D37" t="n">
-        <v>18.9</v>
+        <v>0.001889441770383256</v>
       </c>
     </row>
     <row r="38">
@@ -965,7 +965,7 @@
         <v>64.3</v>
       </c>
       <c r="D38" t="n">
-        <v>22.3</v>
+        <v>0.002233815390735487</v>
       </c>
     </row>
     <row r="39">
@@ -979,7 +979,7 @@
         <v>55</v>
       </c>
       <c r="D39" t="n">
-        <v>18.6</v>
+        <v>0.00186153022122345</v>
       </c>
     </row>
     <row r="40">
@@ -993,7 +993,7 @@
         <v>59.6</v>
       </c>
       <c r="D40" t="n">
-        <v>20.1</v>
+        <v>0.002008013190460791</v>
       </c>
     </row>
     <row r="41">
@@ -1007,7 +1007,7 @@
         <v>48.4</v>
       </c>
       <c r="D41" t="n">
-        <v>18.3</v>
+        <v>0.001828482569647411</v>
       </c>
     </row>
     <row r="42">
@@ -1021,7 +1021,7 @@
         <v>56.4</v>
       </c>
       <c r="D42" t="n">
-        <v>18.6</v>
+        <v>0.001859243994667844</v>
       </c>
     </row>
     <row r="43">
@@ -1035,7 +1035,7 @@
         <v>56.6</v>
       </c>
       <c r="D43" t="n">
-        <v>20.7</v>
+        <v>0.002065944219041781</v>
       </c>
     </row>
     <row r="44">
@@ -1049,7 +1049,7 @@
         <v>63.3</v>
       </c>
       <c r="D44" t="n">
-        <v>20.2</v>
+        <v>0.002023299461117173</v>
       </c>
     </row>
     <row r="45">
@@ -1063,7 +1063,7 @@
         <v>62.3</v>
       </c>
       <c r="D45" t="n">
-        <v>20.9</v>
+        <v>0.002090168658656228</v>
       </c>
     </row>
     <row r="46">
@@ -1077,7 +1077,7 @@
         <v>48.3</v>
       </c>
       <c r="D46" t="n">
-        <v>17.2</v>
+        <v>0.001718877854538226</v>
       </c>
     </row>
     <row r="47">
@@ -1091,7 +1091,7 @@
         <v>58.4</v>
       </c>
       <c r="D47" t="n">
-        <v>19.2</v>
+        <v>0.001919423670160807</v>
       </c>
     </row>
     <row r="48">
@@ -1105,7 +1105,7 @@
         <v>66.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>22.9</v>
+        <v>0.002289451126047472</v>
       </c>
     </row>
     <row r="49">
@@ -1119,7 +1119,7 @@
         <v>53</v>
       </c>
       <c r="D49" t="n">
-        <v>17.9</v>
+        <v>0.001791693992394152</v>
       </c>
     </row>
     <row r="50">
@@ -1133,7 +1133,7 @@
         <v>65.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>20.7</v>
+        <v>0.002070995743969691</v>
       </c>
     </row>
     <row r="51">
@@ -1147,7 +1147,7 @@
         <v>61.2</v>
       </c>
       <c r="D51" t="n">
-        <v>19.9</v>
+        <v>0.001987019402939203</v>
       </c>
     </row>
     <row r="52">
@@ -1161,7 +1161,7 @@
         <v>66.7</v>
       </c>
       <c r="D52" t="n">
-        <v>21.1</v>
+        <v>0.0021145686398778</v>
       </c>
     </row>
     <row r="53">
@@ -1175,7 +1175,7 @@
         <v>57.3</v>
       </c>
       <c r="D53" t="n">
-        <v>19.6</v>
+        <v>0.00195890439292199</v>
       </c>
     </row>
     <row r="54">
@@ -1189,7 +1189,7 @@
         <v>56.9</v>
       </c>
       <c r="D54" t="n">
-        <v>17.9</v>
+        <v>0.001786317183331191</v>
       </c>
     </row>
     <row r="55">
@@ -1203,7 +1203,7 @@
         <v>52.5</v>
       </c>
       <c r="D55" t="n">
-        <v>17</v>
+        <v>0.001703486796639261</v>
       </c>
     </row>
     <row r="56">
@@ -1217,7 +1217,7 @@
         <v>56</v>
       </c>
       <c r="D56" t="n">
-        <v>20.3</v>
+        <v>0.002030794278165978</v>
       </c>
     </row>
     <row r="57">
@@ -1231,7 +1231,7 @@
         <v>67.09999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>21.1</v>
+        <v>0.002110746384971183</v>
       </c>
     </row>
     <row r="58">
@@ -1245,7 +1245,7 @@
         <v>70.7</v>
       </c>
       <c r="D58" t="n">
-        <v>22.1</v>
+        <v>0.002210555379775306</v>
       </c>
     </row>
     <row r="59">
@@ -1259,7 +1259,7 @@
         <v>58.1</v>
       </c>
       <c r="D59" t="n">
-        <v>20.3</v>
+        <v>0.002033320266704805</v>
       </c>
     </row>
     <row r="60">
@@ -1273,7 +1273,7 @@
         <v>54.1</v>
       </c>
       <c r="D60" t="n">
-        <v>19.1</v>
+        <v>0.001905488851243883</v>
       </c>
     </row>
     <row r="61">
@@ -1287,7 +1287,7 @@
         <v>60.7</v>
       </c>
       <c r="D61" t="n">
-        <v>20.6</v>
+        <v>0.002062008404378016</v>
       </c>
     </row>
     <row r="62">
@@ -1301,7 +1301,7 @@
         <v>58.4</v>
       </c>
       <c r="D62" t="n">
-        <v>20.5</v>
+        <v>0.002046258288694455</v>
       </c>
     </row>
     <row r="63">
@@ -1315,7 +1315,7 @@
         <v>62.4</v>
       </c>
       <c r="D63" t="n">
-        <v>20.3</v>
+        <v>0.00203088993009484</v>
       </c>
     </row>
     <row r="64">
@@ -1329,7 +1329,7 @@
         <v>58.8</v>
       </c>
       <c r="D64" t="n">
-        <v>19.6</v>
+        <v>0.001955345032809887</v>
       </c>
     </row>
     <row r="65">
@@ -1343,7 +1343,7 @@
         <v>58.4</v>
       </c>
       <c r="D65" t="n">
-        <v>20.2</v>
+        <v>0.002016638396820852</v>
       </c>
     </row>
     <row r="66">
@@ -1357,7 +1357,7 @@
         <v>61.4</v>
       </c>
       <c r="D66" t="n">
-        <v>19</v>
+        <v>0.001897128608922356</v>
       </c>
     </row>
     <row r="67">
@@ -1371,7 +1371,7 @@
         <v>49.7</v>
       </c>
       <c r="D67" t="n">
-        <v>16.6</v>
+        <v>0.001655582093750782</v>
       </c>
     </row>
     <row r="68">
@@ -1385,7 +1385,7 @@
         <v>64.59999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>21</v>
+        <v>0.002099878897748846</v>
       </c>
     </row>
     <row r="69">
@@ -1399,7 +1399,7 @@
         <v>60.2</v>
       </c>
       <c r="D69" t="n">
-        <v>20.3</v>
+        <v>0.002034212653742828</v>
       </c>
     </row>
     <row r="70">
@@ -1413,7 +1413,7 @@
         <v>47</v>
       </c>
       <c r="D70" t="n">
-        <v>16.1</v>
+        <v>0.00161062030790517</v>
       </c>
     </row>
     <row r="71">
@@ -1427,7 +1427,7 @@
         <v>56.6</v>
       </c>
       <c r="D71" t="n">
-        <v>19.3</v>
+        <v>0.00193179839361597</v>
       </c>
     </row>
     <row r="72">
@@ -1441,7 +1441,7 @@
         <v>58.6</v>
       </c>
       <c r="D72" t="n">
-        <v>21.3</v>
+        <v>0.002133677901612363</v>
       </c>
     </row>
     <row r="73">
@@ -1455,7 +1455,7 @@
         <v>60.8</v>
       </c>
       <c r="D73" t="n">
-        <v>18.8</v>
+        <v>0.001877312109356234</v>
       </c>
     </row>
     <row r="74">
@@ -1469,7 +1469,7 @@
         <v>63.7</v>
       </c>
       <c r="D74" t="n">
-        <v>20.2</v>
+        <v>0.002018776504202954</v>
       </c>
     </row>
     <row r="75">
@@ -1483,7 +1483,7 @@
         <v>46.6</v>
       </c>
       <c r="D75" t="n">
-        <v>17.5</v>
+        <v>0.001749037775443683</v>
       </c>
     </row>
     <row r="76">
@@ -1497,7 +1497,7 @@
         <v>58.3</v>
       </c>
       <c r="D76" t="n">
-        <v>19.4</v>
+        <v>0.001939498188977345</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         <v>54.6</v>
       </c>
       <c r="D77" t="n">
-        <v>19.2</v>
+        <v>0.001920334328597128</v>
       </c>
     </row>
     <row r="78">
@@ -1525,7 +1525,7 @@
         <v>62.9</v>
       </c>
       <c r="D78" t="n">
-        <v>20.8</v>
+        <v>0.00208488975443792</v>
       </c>
     </row>
     <row r="79">
@@ -1539,7 +1539,7 @@
         <v>60.3</v>
       </c>
       <c r="D79" t="n">
-        <v>21.8</v>
+        <v>0.002179855159775345</v>
       </c>
     </row>
     <row r="80">
@@ -1553,7 +1553,7 @@
         <v>52.4</v>
       </c>
       <c r="D80" t="n">
-        <v>16.7</v>
+        <v>0.001672022745558864</v>
       </c>
     </row>
     <row r="81">
@@ -1567,7 +1567,7 @@
         <v>55.6</v>
       </c>
       <c r="D81" t="n">
-        <v>18.8</v>
+        <v>0.0018774518594092</v>
       </c>
     </row>
     <row r="82">
@@ -1581,7 +1581,7 @@
         <v>61.1</v>
       </c>
       <c r="D82" t="n">
-        <v>20.1</v>
+        <v>0.002008682375735084</v>
       </c>
     </row>
     <row r="83">
@@ -1595,7 +1595,7 @@
         <v>55.3</v>
       </c>
       <c r="D83" t="n">
-        <v>19.2</v>
+        <v>0.001921475490378299</v>
       </c>
     </row>
     <row r="84">
@@ -1609,7 +1609,7 @@
         <v>70.5</v>
       </c>
       <c r="D84" t="n">
-        <v>22.3</v>
+        <v>0.002225885451040398</v>
       </c>
     </row>
     <row r="85">
@@ -1623,7 +1623,7 @@
         <v>58.5</v>
       </c>
       <c r="D85" t="n">
-        <v>20.6</v>
+        <v>0.002063225227319849</v>
       </c>
     </row>
     <row r="86">
@@ -1637,7 +1637,7 @@
         <v>58.5</v>
       </c>
       <c r="D86" t="n">
-        <v>19</v>
+        <v>0.001895125722437285</v>
       </c>
     </row>
     <row r="87">
@@ -1651,7 +1651,7 @@
         <v>63.3</v>
       </c>
       <c r="D87" t="n">
-        <v>20.5</v>
+        <v>0.002051500655615581</v>
       </c>
     </row>
     <row r="88">
@@ -1665,7 +1665,7 @@
         <v>63.9</v>
       </c>
       <c r="D88" t="n">
-        <v>21.8</v>
+        <v>0.002182729836963358</v>
       </c>
     </row>
     <row r="89">
@@ -1679,7 +1679,7 @@
         <v>59.7</v>
       </c>
       <c r="D89" t="n">
-        <v>18.8</v>
+        <v>0.001882932449499941</v>
       </c>
     </row>
     <row r="90">
@@ -1693,7 +1693,7 @@
         <v>54.9</v>
       </c>
       <c r="D90" t="n">
-        <v>17.3</v>
+        <v>0.00172867402899256</v>
       </c>
     </row>
     <row r="91">
@@ -1707,7 +1707,7 @@
         <v>59.6</v>
       </c>
       <c r="D91" t="n">
-        <v>19.9</v>
+        <v>0.001985784004652518</v>
       </c>
     </row>
     <row r="92">
@@ -1721,7 +1721,7 @@
         <v>61.9</v>
       </c>
       <c r="D92" t="n">
-        <v>20.7</v>
+        <v>0.002067944598453033</v>
       </c>
     </row>
     <row r="93">
@@ -1735,7 +1735,7 @@
         <v>64.2</v>
       </c>
       <c r="D93" t="n">
-        <v>20.2</v>
+        <v>0.002015954443687522</v>
       </c>
     </row>
     <row r="94">
@@ -1749,7 +1749,7 @@
         <v>63.8</v>
       </c>
       <c r="D94" t="n">
-        <v>19.3</v>
+        <v>0.001933969350281534</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>50.9</v>
       </c>
       <c r="D95" t="n">
-        <v>16.5</v>
+        <v>0.001646161103904858</v>
       </c>
     </row>
     <row r="96">
@@ -1777,7 +1777,7 @@
         <v>60.5</v>
       </c>
       <c r="D96" t="n">
-        <v>19.1</v>
+        <v>0.001911326263641972</v>
       </c>
     </row>
     <row r="97">
@@ -1791,7 +1791,7 @@
         <v>59.8</v>
       </c>
       <c r="D97" t="n">
-        <v>18.6</v>
+        <v>0.001860896585305092</v>
       </c>
     </row>
     <row r="98">
@@ -1805,7 +1805,7 @@
         <v>54.4</v>
       </c>
       <c r="D98" t="n">
-        <v>19.2</v>
+        <v>0.001920073001733519</v>
       </c>
     </row>
     <row r="99">
@@ -1819,7 +1819,7 @@
         <v>55.8</v>
       </c>
       <c r="D99" t="n">
-        <v>21.5</v>
+        <v>0.002150763230168357</v>
       </c>
     </row>
     <row r="100">
@@ -1833,7 +1833,7 @@
         <v>58.1</v>
       </c>
       <c r="D100" t="n">
-        <v>20.2</v>
+        <v>0.002020439917198706</v>
       </c>
     </row>
     <row r="101">
@@ -1847,7 +1847,7 @@
         <v>52.4</v>
       </c>
       <c r="D101" t="n">
-        <v>17.1</v>
+        <v>0.001710481489362408</v>
       </c>
     </row>
     <row r="102">
@@ -1861,7 +1861,7 @@
         <v>46.3</v>
       </c>
       <c r="D102" t="n">
-        <v>17.1</v>
+        <v>0.001705372992523319</v>
       </c>
     </row>
     <row r="103">
@@ -1875,7 +1875,7 @@
         <v>59.1</v>
       </c>
       <c r="D103" t="n">
-        <v>20.4</v>
+        <v>0.002035726474779401</v>
       </c>
     </row>
     <row r="104">
@@ -1889,7 +1889,7 @@
         <v>60.9</v>
       </c>
       <c r="D104" t="n">
-        <v>20.2</v>
+        <v>0.002018992579152006</v>
       </c>
     </row>
     <row r="105">
@@ -1903,7 +1903,7 @@
         <v>44.7</v>
       </c>
       <c r="D105" t="n">
-        <v>16.1</v>
+        <v>0.001610782716482225</v>
       </c>
     </row>
     <row r="106">
@@ -1917,7 +1917,7 @@
         <v>52</v>
       </c>
       <c r="D106" t="n">
-        <v>17.5</v>
+        <v>0.001753921627062457</v>
       </c>
     </row>
     <row r="107">
@@ -1931,7 +1931,7 @@
         <v>56</v>
       </c>
       <c r="D107" t="n">
-        <v>18.8</v>
+        <v>0.001876214588045222</v>
       </c>
     </row>
     <row r="108">
@@ -1945,7 +1945,7 @@
         <v>55.8</v>
       </c>
       <c r="D108" t="n">
-        <v>18.9</v>
+        <v>0.001889476975348886</v>
       </c>
     </row>
     <row r="109">
@@ -1959,7 +1959,7 @@
         <v>57.4</v>
       </c>
       <c r="D109" t="n">
-        <v>20.2</v>
+        <v>0.002022030834853156</v>
       </c>
     </row>
     <row r="110">
@@ -1973,7 +1973,7 @@
         <v>58.2</v>
       </c>
       <c r="D110" t="n">
-        <v>18.7</v>
+        <v>0.001872135222492631</v>
       </c>
     </row>
     <row r="111">
@@ -1987,7 +1987,7 @@
         <v>57.7</v>
       </c>
       <c r="D111" t="n">
-        <v>21.9</v>
+        <v>0.002193770456749819</v>
       </c>
     </row>
     <row r="112">
@@ -2001,7 +2001,7 @@
         <v>55.4</v>
       </c>
       <c r="D112" t="n">
-        <v>18.7</v>
+        <v>0.001870955420807129</v>
       </c>
     </row>
     <row r="113">
@@ -2015,7 +2015,7 @@
         <v>57.9</v>
       </c>
       <c r="D113" t="n">
-        <v>18.3</v>
+        <v>0.001828068235340875</v>
       </c>
     </row>
     <row r="114">
@@ -2029,7 +2029,7 @@
         <v>59.7</v>
       </c>
       <c r="D114" t="n">
-        <v>18.8</v>
+        <v>0.001878284444313792</v>
       </c>
     </row>
     <row r="115">
@@ -2043,7 +2043,7 @@
         <v>50.7</v>
       </c>
       <c r="D115" t="n">
-        <v>18.1</v>
+        <v>0.001808524763243245</v>
       </c>
     </row>
     <row r="116">
@@ -2057,7 +2057,7 @@
         <v>55.3</v>
       </c>
       <c r="D116" t="n">
-        <v>17.5</v>
+        <v>0.001750273899857597</v>
       </c>
     </row>
     <row r="117">
@@ -2071,7 +2071,7 @@
         <v>58.3</v>
       </c>
       <c r="D117" t="n">
-        <v>19.2</v>
+        <v>0.001919646296178762</v>
       </c>
     </row>
     <row r="118">
@@ -2085,7 +2085,7 @@
         <v>60.2</v>
       </c>
       <c r="D118" t="n">
-        <v>19.7</v>
+        <v>0.001969818990773883</v>
       </c>
     </row>
     <row r="119">
@@ -2099,7 +2099,7 @@
         <v>61.7</v>
       </c>
       <c r="D119" t="n">
-        <v>19.7</v>
+        <v>0.001965357207402302</v>
       </c>
     </row>
     <row r="120">
@@ -2113,7 +2113,7 @@
         <v>52.6</v>
       </c>
       <c r="D120" t="n">
-        <v>19</v>
+        <v>0.001901977027145105</v>
       </c>
     </row>
     <row r="121">
@@ -2127,7 +2127,7 @@
         <v>62.1</v>
       </c>
       <c r="D121" t="n">
-        <v>20.3</v>
+        <v>0.002031289773077666</v>
       </c>
     </row>
     <row r="122">
@@ -2141,7 +2141,7 @@
         <v>54.4</v>
       </c>
       <c r="D122" t="n">
-        <v>19.5</v>
+        <v>0.001946340949691305</v>
       </c>
     </row>
     <row r="123">
@@ -2155,7 +2155,7 @@
         <v>49.4</v>
       </c>
       <c r="D123" t="n">
-        <v>17</v>
+        <v>0.001696377571332497</v>
       </c>
     </row>
     <row r="124">
@@ -2169,7 +2169,7 @@
         <v>58.2</v>
       </c>
       <c r="D124" t="n">
-        <v>18.7</v>
+        <v>0.001871026114056596</v>
       </c>
     </row>
     <row r="125">
@@ -2183,7 +2183,7 @@
         <v>61.4</v>
       </c>
       <c r="D125" t="n">
-        <v>20</v>
+        <v>0.002001000105770204</v>
       </c>
     </row>
     <row r="126">
@@ -2197,7 +2197,7 @@
         <v>48.5</v>
       </c>
       <c r="D126" t="n">
-        <v>16.3</v>
+        <v>0.001627376565294265</v>
       </c>
     </row>
     <row r="127">
@@ -2211,7 +2211,7 @@
         <v>55.9</v>
       </c>
       <c r="D127" t="n">
-        <v>20.1</v>
+        <v>0.002012088213434359</v>
       </c>
     </row>
     <row r="128">
@@ -2225,7 +2225,7 @@
         <v>49.7</v>
       </c>
       <c r="D128" t="n">
-        <v>17.4</v>
+        <v>0.001740742213896759</v>
       </c>
     </row>
     <row r="129">
@@ -2239,7 +2239,7 @@
         <v>54.1</v>
       </c>
       <c r="D129" t="n">
-        <v>18.2</v>
+        <v>0.001817513266123021</v>
       </c>
     </row>
     <row r="130">
@@ -2253,7 +2253,7 @@
         <v>63.6</v>
       </c>
       <c r="D130" t="n">
-        <v>20.8</v>
+        <v>0.002077224836059786</v>
       </c>
     </row>
     <row r="131">
@@ -2267,7 +2267,7 @@
         <v>60.8</v>
       </c>
       <c r="D131" t="n">
-        <v>19.1</v>
+        <v>0.001908951702348251</v>
       </c>
     </row>
     <row r="132">
@@ -2281,7 +2281,7 @@
         <v>60.1</v>
       </c>
       <c r="D132" t="n">
-        <v>20</v>
+        <v>0.001999595643712232</v>
       </c>
     </row>
     <row r="133">
@@ -2295,7 +2295,7 @@
         <v>59.3</v>
       </c>
       <c r="D133" t="n">
-        <v>18.1</v>
+        <v>0.001810813284244885</v>
       </c>
     </row>
     <row r="134">
@@ -2309,7 +2309,7 @@
         <v>52.4</v>
       </c>
       <c r="D134" t="n">
-        <v>17</v>
+        <v>0.001701278491224898</v>
       </c>
     </row>
     <row r="135">
@@ -2323,7 +2323,7 @@
         <v>56.1</v>
       </c>
       <c r="D135" t="n">
-        <v>21</v>
+        <v>0.002098156125062094</v>
       </c>
     </row>
     <row r="136">
@@ -2337,7 +2337,7 @@
         <v>58.1</v>
       </c>
       <c r="D136" t="n">
-        <v>17.8</v>
+        <v>0.001781843229327475</v>
       </c>
     </row>
     <row r="137">
@@ -2351,7 +2351,7 @@
         <v>61.7</v>
       </c>
       <c r="D137" t="n">
-        <v>20.5</v>
+        <v>0.00205358034363978</v>
       </c>
     </row>
     <row r="138">
@@ -2365,7 +2365,7 @@
         <v>52.9</v>
       </c>
       <c r="D138" t="n">
-        <v>18.9</v>
+        <v>0.001886686974810649</v>
       </c>
     </row>
     <row r="139">
@@ -2379,7 +2379,7 @@
         <v>57.5</v>
       </c>
       <c r="D139" t="n">
-        <v>19.6</v>
+        <v>0.001960092642892203</v>
       </c>
     </row>
     <row r="140">
@@ -2393,7 +2393,7 @@
         <v>68.7</v>
       </c>
       <c r="D140" t="n">
-        <v>19.5</v>
+        <v>0.00194864301529133</v>
       </c>
     </row>
     <row r="141">
@@ -2407,7 +2407,7 @@
         <v>59.1</v>
       </c>
       <c r="D141" t="n">
-        <v>18.7</v>
+        <v>0.001871775196745785</v>
       </c>
     </row>
     <row r="142">
@@ -2421,7 +2421,7 @@
         <v>61.8</v>
       </c>
       <c r="D142" t="n">
-        <v>19.8</v>
+        <v>0.001981132118981347</v>
       </c>
     </row>
     <row r="143">
@@ -2435,7 +2435,7 @@
         <v>51.4</v>
       </c>
       <c r="D143" t="n">
-        <v>18.8</v>
+        <v>0.001876326080725116</v>
       </c>
     </row>
     <row r="144">
@@ -2449,7 +2449,7 @@
         <v>56.8</v>
       </c>
       <c r="D144" t="n">
-        <v>19</v>
+        <v>0.001904730179083757</v>
       </c>
     </row>
     <row r="145">
@@ -2463,7 +2463,7 @@
         <v>57.9</v>
       </c>
       <c r="D145" t="n">
-        <v>19.2</v>
+        <v>0.001920244906669023</v>
       </c>
     </row>
     <row r="146">
@@ -2477,7 +2477,7 @@
         <v>48.6</v>
       </c>
       <c r="D146" t="n">
-        <v>17.7</v>
+        <v>0.001773078508029131</v>
       </c>
     </row>
     <row r="147">
@@ -2491,7 +2491,7 @@
         <v>52.8</v>
       </c>
       <c r="D147" t="n">
-        <v>17.6</v>
+        <v>0.001756985554478595</v>
       </c>
     </row>
     <row r="148">
@@ -2505,7 +2505,7 @@
         <v>60.7</v>
       </c>
       <c r="D148" t="n">
-        <v>20</v>
+        <v>0.002000974720539919</v>
       </c>
     </row>
     <row r="149">
@@ -2519,7 +2519,7 @@
         <v>51.2</v>
       </c>
       <c r="D149" t="n">
-        <v>19.1</v>
+        <v>0.001907480103955464</v>
       </c>
     </row>
     <row r="150">
@@ -2533,7 +2533,7 @@
         <v>59.3</v>
       </c>
       <c r="D150" t="n">
-        <v>19.5</v>
+        <v>0.001946968780888796</v>
       </c>
     </row>
     <row r="151">
@@ -2547,7 +2547,7 @@
         <v>62.5</v>
       </c>
       <c r="D151" t="n">
-        <v>20.4</v>
+        <v>0.002040491253676527</v>
       </c>
     </row>
     <row r="152">
@@ -2561,7 +2561,7 @@
         <v>56.9</v>
       </c>
       <c r="D152" t="n">
-        <v>18.2</v>
+        <v>0.00182285505422953</v>
       </c>
     </row>
     <row r="153">
@@ -2575,7 +2575,7 @@
         <v>62.8</v>
       </c>
       <c r="D153" t="n">
-        <v>21.4</v>
+        <v>0.00214269261161458</v>
       </c>
     </row>
     <row r="154">
@@ -2589,7 +2589,7 @@
         <v>54.8</v>
       </c>
       <c r="D154" t="n">
-        <v>19.2</v>
+        <v>0.001921678728210105</v>
       </c>
     </row>
     <row r="155">
@@ -2603,7 +2603,7 @@
         <v>63.6</v>
       </c>
       <c r="D155" t="n">
-        <v>22.6</v>
+        <v>0.002260984627368653</v>
       </c>
     </row>
     <row r="156">
@@ -2617,7 +2617,7 @@
         <v>62</v>
       </c>
       <c r="D156" t="n">
-        <v>18.3</v>
+        <v>0.001831735090384508</v>
       </c>
     </row>
     <row r="157">
@@ -2631,7 +2631,7 @@
         <v>48.1</v>
       </c>
       <c r="D157" t="n">
-        <v>18.1</v>
+        <v>0.001813668071806757</v>
       </c>
     </row>
     <row r="158">
@@ -2645,7 +2645,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>22.2</v>
+        <v>0.002217889153564604</v>
       </c>
     </row>
     <row r="159">
@@ -2659,7 +2659,7 @@
         <v>49.3</v>
       </c>
       <c r="D159" t="n">
-        <v>16.8</v>
+        <v>0.001678438388868541</v>
       </c>
     </row>
     <row r="160">
@@ -2673,7 +2673,7 @@
         <v>62.9</v>
       </c>
       <c r="D160" t="n">
-        <v>18.8</v>
+        <v>0.001880808687075388</v>
       </c>
     </row>
     <row r="161">
@@ -2687,7 +2687,7 @@
         <v>52.6</v>
       </c>
       <c r="D161" t="n">
-        <v>19.1</v>
+        <v>0.001910229339895344</v>
       </c>
     </row>
     <row r="162">
@@ -2701,7 +2701,7 @@
         <v>66.3</v>
       </c>
       <c r="D162" t="n">
-        <v>22.9</v>
+        <v>0.002285348861026392</v>
       </c>
     </row>
     <row r="163">
@@ -2715,7 +2715,7 @@
         <v>49.8</v>
       </c>
       <c r="D163" t="n">
-        <v>18.6</v>
+        <v>0.001862969623156811</v>
       </c>
     </row>
     <row r="164">
@@ -2729,7 +2729,7 @@
         <v>63.1</v>
       </c>
       <c r="D164" t="n">
-        <v>20.3</v>
+        <v>0.002031194805211951</v>
       </c>
     </row>
     <row r="165">
@@ -2743,7 +2743,7 @@
         <v>54.4</v>
       </c>
       <c r="D165" t="n">
-        <v>18</v>
+        <v>0.001802540216849219</v>
       </c>
     </row>
     <row r="166">
@@ -2757,7 +2757,7 @@
         <v>58.2</v>
       </c>
       <c r="D166" t="n">
-        <v>21.1</v>
+        <v>0.002114584820998806</v>
       </c>
     </row>
     <row r="167">
@@ -2771,7 +2771,7 @@
         <v>57.7</v>
       </c>
       <c r="D167" t="n">
-        <v>19.8</v>
+        <v>0.001984197780804374</v>
       </c>
     </row>
     <row r="168">
@@ -2785,7 +2785,7 @@
         <v>52.3</v>
       </c>
       <c r="D168" t="n">
-        <v>17.3</v>
+        <v>0.001731826286839777</v>
       </c>
     </row>
     <row r="169">
@@ -2799,7 +2799,7 @@
         <v>56.6</v>
       </c>
       <c r="D169" t="n">
-        <v>20</v>
+        <v>0.001996376827595961</v>
       </c>
     </row>
     <row r="170">
@@ -2813,7 +2813,7 @@
         <v>57.6</v>
       </c>
       <c r="D170" t="n">
-        <v>19.8</v>
+        <v>0.001976730193736535</v>
       </c>
     </row>
     <row r="171">
@@ -2827,7 +2827,7 @@
         <v>50.5</v>
       </c>
       <c r="D171" t="n">
-        <v>18</v>
+        <v>0.001796163241406586</v>
       </c>
     </row>
     <row r="172">
@@ -2841,7 +2841,7 @@
         <v>55.6</v>
       </c>
       <c r="D172" t="n">
-        <v>17.9</v>
+        <v>0.001787950680461481</v>
       </c>
     </row>
     <row r="173">
@@ -2855,7 +2855,7 @@
         <v>56.3</v>
       </c>
       <c r="D173" t="n">
-        <v>18.9</v>
+        <v>0.001889931201075125</v>
       </c>
     </row>
     <row r="174">
@@ -2869,7 +2869,7 @@
         <v>56.5</v>
       </c>
       <c r="D174" t="n">
-        <v>19.1</v>
+        <v>0.001908400234054952</v>
       </c>
     </row>
     <row r="175">
@@ -2883,7 +2883,7 @@
         <v>54.2</v>
       </c>
       <c r="D175" t="n">
-        <v>19.7</v>
+        <v>0.001971533976650013</v>
       </c>
     </row>
     <row r="176">
@@ -2897,7 +2897,7 @@
         <v>63.2</v>
       </c>
       <c r="D176" t="n">
-        <v>18</v>
+        <v>0.001796426084698101</v>
       </c>
     </row>
     <row r="177">
@@ -2911,7 +2911,7 @@
         <v>47.5</v>
       </c>
       <c r="D177" t="n">
-        <v>16.5</v>
+        <v>0.001650922229287791</v>
       </c>
     </row>
     <row r="178">
@@ -2925,7 +2925,7 @@
         <v>55.8</v>
       </c>
       <c r="D178" t="n">
-        <v>19.3</v>
+        <v>0.00193307143590122</v>
       </c>
     </row>
     <row r="179">
@@ -2939,7 +2939,7 @@
         <v>53.9</v>
       </c>
       <c r="D179" t="n">
-        <v>19.3</v>
+        <v>0.001933792629051919</v>
       </c>
     </row>
     <row r="180">
@@ -2953,7 +2953,7 @@
         <v>55.1</v>
       </c>
       <c r="D180" t="n">
-        <v>19.6</v>
+        <v>0.001961732931402997</v>
       </c>
     </row>
     <row r="181">
@@ -2967,7 +2967,7 @@
         <v>54.1</v>
       </c>
       <c r="D181" t="n">
-        <v>18.9</v>
+        <v>0.001891014151958106</v>
       </c>
     </row>
     <row r="182">
@@ -2981,7 +2981,7 @@
         <v>61.2</v>
       </c>
       <c r="D182" t="n">
-        <v>21.1</v>
+        <v>0.002107403024358412</v>
       </c>
     </row>
     <row r="183">
@@ -2995,7 +2995,7 @@
         <v>52.7</v>
       </c>
       <c r="D183" t="n">
-        <v>18.8</v>
+        <v>0.001883071818420581</v>
       </c>
     </row>
     <row r="184">
@@ -3009,7 +3009,7 @@
         <v>49.5</v>
       </c>
       <c r="D184" t="n">
-        <v>17.2</v>
+        <v>0.001720816072884322</v>
       </c>
     </row>
     <row r="185">
@@ -3023,7 +3023,7 @@
         <v>56.3</v>
       </c>
       <c r="D185" t="n">
-        <v>18.5</v>
+        <v>0.001847976491909184</v>
       </c>
     </row>
     <row r="186">
@@ -3037,7 +3037,7 @@
         <v>64</v>
       </c>
       <c r="D186" t="n">
-        <v>22.6</v>
+        <v>0.002262174552023247</v>
       </c>
     </row>
     <row r="187">
@@ -3051,7 +3051,7 @@
         <v>58.6</v>
       </c>
       <c r="D187" t="n">
-        <v>20.9</v>
+        <v>0.002086685938661439</v>
       </c>
     </row>
     <row r="188">
@@ -3065,7 +3065,7 @@
         <v>58</v>
       </c>
       <c r="D188" t="n">
-        <v>19.1</v>
+        <v>0.001911162769702146</v>
       </c>
     </row>
     <row r="189">
@@ -3079,7 +3079,7 @@
         <v>54.8</v>
       </c>
       <c r="D189" t="n">
-        <v>19.2</v>
+        <v>0.00191692041092758</v>
       </c>
     </row>
     <row r="190">
@@ -3093,7 +3093,7 @@
         <v>57.9</v>
       </c>
       <c r="D190" t="n">
-        <v>20</v>
+        <v>0.002000710236691326</v>
       </c>
     </row>
     <row r="191">
@@ -3107,7 +3107,7 @@
         <v>46</v>
       </c>
       <c r="D191" t="n">
-        <v>15.4</v>
+        <v>0.00153894301638878</v>
       </c>
     </row>
     <row r="192">
@@ -3121,7 +3121,7 @@
         <v>65.8</v>
       </c>
       <c r="D192" t="n">
-        <v>20.7</v>
+        <v>0.002068766800220729</v>
       </c>
     </row>
     <row r="193">
@@ -3135,7 +3135,7 @@
         <v>50.3</v>
       </c>
       <c r="D193" t="n">
-        <v>18.2</v>
+        <v>0.001816784859764284</v>
       </c>
     </row>
     <row r="194">
@@ -3149,7 +3149,7 @@
         <v>60.3</v>
       </c>
       <c r="D194" t="n">
-        <v>20.5</v>
+        <v>0.002052227710113113</v>
       </c>
     </row>
     <row r="195">
@@ -3163,7 +3163,7 @@
         <v>66.40000000000001</v>
       </c>
       <c r="D195" t="n">
-        <v>22.6</v>
+        <v>0.002263801635667273</v>
       </c>
     </row>
     <row r="196">
@@ -3177,7 +3177,7 @@
         <v>66</v>
       </c>
       <c r="D196" t="n">
-        <v>21.1</v>
+        <v>0.002109058269807755</v>
       </c>
     </row>
     <row r="197">
@@ -3191,7 +3191,7 @@
         <v>54.8</v>
       </c>
       <c r="D197" t="n">
-        <v>19.6</v>
+        <v>0.001961927263602747</v>
       </c>
     </row>
     <row r="198">
@@ -3205,7 +3205,7 @@
         <v>52.5</v>
       </c>
       <c r="D198" t="n">
-        <v>18.6</v>
+        <v>0.001862186628539585</v>
       </c>
     </row>
     <row r="199">
@@ -3219,7 +3219,7 @@
         <v>58.2</v>
       </c>
       <c r="D199" t="n">
-        <v>19.4</v>
+        <v>0.001936745667005692</v>
       </c>
     </row>
     <row r="200">
@@ -3233,7 +3233,7 @@
         <v>57.8</v>
       </c>
       <c r="D200" t="n">
-        <v>19.4</v>
+        <v>0.001936683727736047</v>
       </c>
     </row>
     <row r="201">
@@ -3247,7 +3247,7 @@
         <v>58</v>
       </c>
       <c r="D201" t="n">
-        <v>17.6</v>
+        <v>0.001763810146665074</v>
       </c>
     </row>
   </sheetData>
